--- a/summary.xlsx
+++ b/summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\主科\嵌入式相關\硬體安全導論\Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\主科\嵌入式相關\硬體安全導論\HardWare_Security_Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF264D8D-1F3A-440B-BAF4-1FD184DC9E79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C0610-A70A-4931-935B-DE65BAE395CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_result" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="73">
   <si>
     <t>Index of test</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -666,15 +666,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B8FA-395D-4FB4-BB6F-8170A488054C}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
@@ -686,8 +686,19 @@
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4">
+        <v>10</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>41</v>
       </c>
@@ -699,8 +710,19 @@
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
@@ -712,8 +734,19 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -725,8 +758,19 @@
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
@@ -738,8 +782,19 @@
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>52</v>
       </c>
@@ -751,8 +806,19 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
@@ -764,8 +830,19 @@
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
@@ -777,8 +854,19 @@
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>62</v>
       </c>
@@ -790,8 +878,19 @@
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>55</v>
       </c>
@@ -803,8 +902,19 @@
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -816,8 +926,19 @@
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>59</v>
       </c>
@@ -829,8 +950,19 @@
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>50</v>
       </c>
@@ -842,8 +974,19 @@
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -855,8 +998,19 @@
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>57</v>
       </c>
@@ -868,8 +1022,19 @@
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -881,8 +1046,19 @@
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>61</v>
       </c>
@@ -894,16 +1070,65 @@
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
+  <mergeCells count="68">
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -920,17 +1145,13 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1675,99 +1896,70 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
@@ -1792,70 +1984,99 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2233,12 +2454,64 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
@@ -2255,64 +2528,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\主科\嵌入式相關\硬體安全導論\HardWare_Security_Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C0610-A70A-4931-935B-DE65BAE395CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6655E00-32C7-424A-85C3-C86AA294A78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14625" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_result" sheetId="4" r:id="rId1"/>
@@ -380,10 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,35 +668,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B8FA-395D-4FB4-BB6F-8170A488054C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3">
         <v>50</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="I1" s="3" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="I1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4">
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="3">
         <v>10</v>
       </c>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -957,7 +957,7 @@
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -981,7 +981,7 @@
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -1084,51 +1084,13 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -1145,13 +1107,51 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:O15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1896,46 +1896,123 @@
     </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="A26:B26"/>
@@ -1960,123 +2037,46 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2454,16 +2454,60 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
@@ -2480,60 +2524,16 @@
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="I12:J12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/summary.xlsx
+++ b/summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\主科\嵌入式相關\硬體安全導論\HardWare_Security_Final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6655E00-32C7-424A-85C3-C86AA294A78C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C7147D4-DF56-4AA8-9A2D-E75175293B44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14625" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total_result" sheetId="4" r:id="rId1"/>
@@ -380,10 +380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -668,35 +668,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA0B8FA-395D-4FB4-BB6F-8170A488054C}">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4">
         <v>50</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="4" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="I1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="3">
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4">
         <v>10</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1084,13 +1084,51 @@
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A1:D1"/>
@@ -1107,51 +1145,13 @@
     <mergeCell ref="E8:G8"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC5CF574-CF5B-4297-906D-9CDCB4D78710}">
-  <dimension ref="A3:Z33"/>
+  <dimension ref="A3:Z34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-3</v>
       </c>
       <c r="B31">
         <v>0.99990000000000001</v>
@@ -1877,118 +1877,112 @@
       </c>
       <c r="E31" s="1">
         <f>SQRT((B31*A31)/C31)</f>
-        <v>9.6533582372297148E-5</v>
+        <v>9.6533582372297134E-4</v>
       </c>
       <c r="F31">
         <f>B31-3*E31</f>
-        <v>0.99961039925288309</v>
+        <v>0.9970039925288311</v>
       </c>
       <c r="G31">
         <f>F31^70*B31</f>
-        <v>0.97299399224111216</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+        <v>0.81047456593322376</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>0.01</v>
+      </c>
+      <c r="B33">
+        <v>0.99</v>
+      </c>
+      <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <f>SQRT((B33*A33)/C33)</f>
+        <v>9.9498743710661995E-3</v>
+      </c>
+      <c r="F33">
+        <f>B33-3*E33</f>
+        <v>0.96015037688680138</v>
+      </c>
       <c r="G33">
         <f>A26*E25</f>
         <v>104857600</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34">
+        <f>E33*3</f>
+        <v>2.9849623113198599E-2</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="181">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:Z26"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="O12:P12"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
@@ -2013,70 +2007,99 @@
     <mergeCell ref="K17:L17"/>
     <mergeCell ref="M16:N16"/>
     <mergeCell ref="M17:N17"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:Z26"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2454,12 +2477,64 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
@@ -2476,64 +2551,12 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
